--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>16726.52872038659</v>
+        <v>237.0630554143656</v>
       </c>
       <c r="R2">
-        <v>150538.7584834794</v>
+        <v>2133.56749872929</v>
       </c>
       <c r="S2">
-        <v>0.1809831425338054</v>
+        <v>0.006349137660736119</v>
       </c>
       <c r="T2">
-        <v>0.1809831425338055</v>
+        <v>0.006349137660736119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>14516.53428680786</v>
+        <v>312.3754432261849</v>
       </c>
       <c r="R3">
-        <v>130648.8085812707</v>
+        <v>2811.378989035664</v>
       </c>
       <c r="S3">
-        <v>0.1570707250646743</v>
+        <v>0.008366190536985389</v>
       </c>
       <c r="T3">
-        <v>0.1570707250646743</v>
+        <v>0.008366190536985387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>20296.67256605756</v>
+        <v>436.7559063047663</v>
       </c>
       <c r="R4">
-        <v>182670.0530945181</v>
+        <v>3930.803156742897</v>
       </c>
       <c r="S4">
-        <v>0.219612547551939</v>
+        <v>0.01169740838960134</v>
       </c>
       <c r="T4">
-        <v>0.2196125475519391</v>
+        <v>0.01169740838960134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>7487.084250472466</v>
+        <v>4931.24790448771</v>
       </c>
       <c r="R5">
-        <v>67383.7582542522</v>
+        <v>44381.23114038939</v>
       </c>
       <c r="S5">
-        <v>0.08101119238293156</v>
+        <v>0.1320710716821028</v>
       </c>
       <c r="T5">
-        <v>0.08101119238293156</v>
+        <v>0.1320710716821028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>6497.852426351536</v>
@@ -818,10 +818,10 @@
         <v>58480.67183716383</v>
       </c>
       <c r="S6">
-        <v>0.07030757974358909</v>
+        <v>0.1740286333606163</v>
       </c>
       <c r="T6">
-        <v>0.07030757974358909</v>
+        <v>0.1740286333606164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>9085.142532957903</v>
@@ -880,10 +880,10 @@
         <v>81766.28279662113</v>
       </c>
       <c r="S7">
-        <v>0.09830238380413073</v>
+        <v>0.2433226911225539</v>
       </c>
       <c r="T7">
-        <v>0.09830238380413074</v>
+        <v>0.2433226911225539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J8">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>5780.175907165743</v>
+        <v>3807.020113067744</v>
       </c>
       <c r="R8">
-        <v>52021.58316449169</v>
+        <v>34263.1810176097</v>
       </c>
       <c r="S8">
-        <v>0.06254222962604444</v>
+        <v>0.1019614580298435</v>
       </c>
       <c r="T8">
-        <v>0.06254222962604446</v>
+        <v>0.1019614580298435</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J9">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>5016.469534284391</v>
@@ -1004,10 +1004,10 @@
         <v>45148.22580855952</v>
       </c>
       <c r="S9">
-        <v>0.05427883070761264</v>
+        <v>0.134353518680458</v>
       </c>
       <c r="T9">
-        <v>0.05427883070761264</v>
+        <v>0.1343535186804579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J10">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>7013.908248575698</v>
@@ -1066,10 +1066,10 @@
         <v>63125.17423718129</v>
       </c>
       <c r="S10">
-        <v>0.07589136858527272</v>
+        <v>0.1878498905371026</v>
       </c>
       <c r="T10">
-        <v>0.07589136858527273</v>
+        <v>0.1878498905371027</v>
       </c>
     </row>
   </sheetData>
